--- a/คะแนนแบบทดสอบสุขภาพสายตา.xlsx
+++ b/คะแนนแบบทดสอบสุขภาพสายตา.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOW X\Documents\GitHub\NGEyeDetect1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79AD899-8D01-46AB-AAE0-450115E2AE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA2BFB-D832-4C27-AAE7-E3BF95E6D79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1644" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -460,10 +460,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44148.600947570398</v>
+        <v>44148.600947569437</v>
       </c>
       <c r="B3">
         <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44166.457958784733</v>
+      </c>
+      <c r="B4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44166.46020833333</v>
+      </c>
+      <c r="B5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44166.46125</v>
+      </c>
+      <c r="B6">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
